--- a/test.xlsx
+++ b/test.xlsx
@@ -19,20 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>5.5</t>
   </si>
   <si>
-    <t>5.6</t>
-  </si>
-  <si>
     <t>5.7</t>
   </si>
   <si>
-    <t>5.8</t>
-  </si>
-  <si>
     <t>5.9</t>
   </si>
   <si>
@@ -55,6 +49,27 @@
   </si>
   <si>
     <t>selling_price</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>mu_consumer_demand</t>
+  </si>
+  <si>
+    <t>sigma_consumer_demand</t>
+  </si>
+  <si>
+    <t>p_delivery</t>
+  </si>
+  <si>
+    <t>max_suppliers</t>
+  </si>
+  <si>
+    <t>input_margin</t>
+  </si>
+  <si>
+    <t>interest_rate</t>
   </si>
 </sst>
 </file>
@@ -381,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -393,29 +408,57 @@
     <col min="2" max="2" width="3.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>184</v>
@@ -424,99 +467,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>193</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>198</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="D16" s="3"/>
     </row>
@@ -571,14 +594,6 @@
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="D31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -24,12 +24,6 @@
     <t>5.5</t>
   </si>
   <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>interest_rate</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.3</t>
   </si>
 </sst>
 </file>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -420,37 +420,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -458,13 +458,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>184</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F2" s="1">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -472,13 +493,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F3" s="1">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -486,13 +528,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">

--- a/test.xlsx
+++ b/test.xlsx
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.09</v>
+        <v>0.99</v>
       </c>
       <c r="F2" s="1">
         <v>60</v>
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>0.09</v>
+        <v>0.99</v>
       </c>
       <c r="F3" s="1">
         <v>60</v>
@@ -537,7 +537,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="1">
-        <v>0.09</v>
+        <v>0.99</v>
       </c>
       <c r="F4" s="1">
         <v>60</v>
